--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3528.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3528.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.773358831735431</v>
+        <v>1.52848219871521</v>
       </c>
       <c r="B1">
-        <v>2.499302005160043</v>
+        <v>1.694281578063965</v>
       </c>
       <c r="C1">
-        <v>2.956685229105878</v>
+        <v>1.81993567943573</v>
       </c>
       <c r="D1">
-        <v>3.245751858683951</v>
+        <v>1.471868872642517</v>
       </c>
       <c r="E1">
-        <v>2.272727139185986</v>
+        <v>1.27924108505249</v>
       </c>
     </row>
   </sheetData>
